--- a/docs/数据结构.xlsx
+++ b/docs/数据结构.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruan/projects/talk-is-cheap-read-the-code/redis-3.0-annotated/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D7018-7A3F-284C-9CDA-6EC8A9796E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77C492-2A8B-2B43-B169-5AD5EE0575C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="50480" windowHeight="28340" xr2:uid="{A872386C-7CFD-F943-995D-B1E0C3530ECB}"/>
+    <workbookView xWindow="39460" yWindow="460" windowWidth="37640" windowHeight="21140" xr2:uid="{A872386C-7CFD-F943-995D-B1E0C3530ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -438,19 +439,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,6 +460,24 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,15 +486,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,14 +803,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC584931-CDDC-CB45-A3A4-22093FAF4E62}">
   <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26:AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="39" width="2.83203125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="1.83203125" style="11" customWidth="1"/>
+    <col min="40" max="40" width="1.83203125" style="8" customWidth="1"/>
     <col min="41" max="41" width="4.83203125" style="1" customWidth="1"/>
     <col min="42" max="48" width="8.83203125" style="1" customWidth="1"/>
     <col min="49" max="50" width="4.83203125" style="1" customWidth="1"/>
@@ -856,7 +857,7 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="10"/>
+      <c r="AN1" s="7"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
@@ -905,7 +906,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="10"/>
+      <c r="AN2" s="7"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
@@ -954,7 +955,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="10"/>
+      <c r="AN3" s="7"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -969,41 +970,41 @@
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="11" t="s">
         <v>60</v>
       </c>
       <c r="R4" s="3"/>
@@ -1028,7 +1029,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="10"/>
+      <c r="AN4" s="7"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -1043,37 +1044,37 @@
         <v>30</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="I5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="O5" s="3"/>
@@ -1101,7 +1102,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" s="10"/>
+      <c r="AN5" s="7"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -1116,23 +1117,23 @@
         <v>28</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1158,7 +1159,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="10"/>
+      <c r="AN6" s="7"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1173,23 +1174,23 @@
         <v>29</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1215,7 +1216,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="10"/>
+      <c r="AN7" s="7"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
@@ -1264,15 +1265,15 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="10"/>
+      <c r="AN8" s="7"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="14" t="s">
+      <c r="AP8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="16"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="19"/>
       <c r="AU8" s="2"/>
     </row>
     <row r="9" spans="1:47" ht="20" customHeight="1">
@@ -1281,56 +1282,56 @@
         <v>26</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="11" t="s">
         <v>77</v>
       </c>
       <c r="V9" s="3"/>
@@ -1351,21 +1352,21 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="10"/>
+      <c r="AN9" s="7"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="12" t="s">
+      <c r="AP9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ9" s="12" t="s">
+      <c r="AQ9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AR9" s="12" t="s">
+      <c r="AR9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AS9" s="12" t="s">
+      <c r="AS9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AT9" s="12" t="s">
+      <c r="AT9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="AU9" s="2"/>
@@ -1376,52 +1377,52 @@
         <v>30</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="I10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="M10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="T10" s="3"/>
@@ -1444,19 +1445,19 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="10"/>
+      <c r="AN10" s="7"/>
       <c r="AO10" s="2"/>
-      <c r="AP10" s="6" t="s">
+      <c r="AP10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AQ10" s="6" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AR10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
       <c r="AU10" s="2"/>
     </row>
     <row r="11" spans="1:47" ht="20" customHeight="1">
@@ -1465,30 +1466,30 @@
         <v>28</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="6"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -1509,19 +1510,19 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="10"/>
+      <c r="AN11" s="7"/>
       <c r="AO11" s="2"/>
-      <c r="AP11" s="6" t="s">
+      <c r="AP11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" s="13" t="s">
+      <c r="AQ11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="4" t="s">
+      <c r="AR11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
       <c r="AU11" s="2"/>
     </row>
     <row r="12" spans="1:47" ht="20" customHeight="1">
@@ -1530,30 +1531,30 @@
         <v>29</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="6"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1574,7 +1575,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="10"/>
+      <c r="AN12" s="7"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -1623,15 +1624,15 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="10"/>
+      <c r="AN13" s="7"/>
       <c r="AO13" s="2"/>
-      <c r="AP13" s="14" t="s">
+      <c r="AP13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="16"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="19"/>
       <c r="AU13" s="2"/>
     </row>
     <row r="14" spans="1:47" ht="20" customHeight="1">
@@ -1640,71 +1641,71 @@
         <v>26</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="V14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="19" t="s">
+      <c r="Z14" s="11" t="s">
         <v>78</v>
       </c>
       <c r="AA14" s="2"/>
@@ -1720,21 +1721,21 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="10"/>
+      <c r="AN14" s="7"/>
       <c r="AO14" s="2"/>
-      <c r="AP14" s="12" t="s">
+      <c r="AP14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AQ14" s="12" t="s">
+      <c r="AQ14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AR14" s="12" t="s">
+      <c r="AR14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AS14" s="12" t="s">
+      <c r="AS14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AT14" s="12" t="s">
+      <c r="AT14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AU14" s="2"/>
@@ -1745,67 +1746,67 @@
         <v>30</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="I15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="12" t="s">
+      <c r="M15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="V15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="W15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="12" t="s">
+      <c r="X15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Y15" s="2"/>
@@ -1823,19 +1824,19 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="10"/>
+      <c r="AN15" s="7"/>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="6" t="s">
+      <c r="AP15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AQ15" s="6" t="s">
+      <c r="AQ15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AR15" s="7" t="s">
+      <c r="AR15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="8"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="16"/>
       <c r="AU15" s="2"/>
     </row>
     <row r="16" spans="1:47" ht="20" customHeight="1">
@@ -1844,37 +1845,37 @@
         <v>28</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="6"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="5"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -1890,19 +1891,19 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="10"/>
+      <c r="AN16" s="7"/>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="6" t="s">
+      <c r="AP16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AQ16" s="13" t="s">
+      <c r="AQ16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AR16" s="4" t="s">
+      <c r="AR16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
       <c r="AU16" s="2"/>
     </row>
     <row r="17" spans="1:47" ht="20" customHeight="1">
@@ -1911,37 +1912,37 @@
         <v>29</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="6"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="5"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -1957,7 +1958,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="10"/>
+      <c r="AN17" s="7"/>
       <c r="AO17" s="2"/>
       <c r="AU17" s="2"/>
     </row>
@@ -2001,16 +2002,16 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
-      <c r="AN18" s="10"/>
+      <c r="AN18" s="7"/>
       <c r="AO18" s="2"/>
-      <c r="AP18" s="18" t="s">
+      <c r="AP18" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
     </row>
     <row r="19" spans="1:47" ht="20" customHeight="1">
       <c r="A19" s="2"/>
@@ -2018,89 +2019,89 @@
         <v>26</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z19" s="9" t="s">
+      <c r="Z19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA19" s="9" t="s">
+      <c r="AA19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AB19" s="9" t="s">
+      <c r="AB19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AC19" s="9" t="s">
+      <c r="AC19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AD19" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="19" t="s">
+      <c r="AF19" s="11" t="s">
         <v>79</v>
       </c>
       <c r="AG19" s="2"/>
@@ -2110,24 +2111,24 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
-      <c r="AN19" s="10"/>
+      <c r="AN19" s="7"/>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ19" s="12" t="s">
+      <c r="AP19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AR19" s="12" t="s">
+      <c r="AR19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AS19" s="12" t="s">
+      <c r="AS19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AT19" s="12" t="s">
+      <c r="AT19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AU19" s="12" t="s">
+      <c r="AU19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2135,199 +2136,199 @@
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="E20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="I20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="12" t="s">
+      <c r="M20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="S20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="V20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="W20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X20" s="12" t="s">
+      <c r="X20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y20" s="12" t="s">
+      <c r="Y20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="12" t="s">
+      <c r="Z20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AA20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AB20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AC20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AD20" s="12" t="s">
+      <c r="AD20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AP20" s="6" t="s">
+      <c r="AP20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AQ20" s="6" t="s">
+      <c r="AQ20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AR20" s="4" t="s">
+      <c r="AR20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
     </row>
     <row r="21" spans="1:47" ht="20" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4" t="s">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4" t="s">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="5"/>
-      <c r="AP21" s="6" t="s">
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="4"/>
+      <c r="AP21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AQ21" s="13" t="s">
+      <c r="AQ21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AR21" s="4" t="s">
+      <c r="AR21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
     </row>
     <row r="22" spans="1:47" ht="20" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="13"/>
+      <c r="N22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4" t="s">
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4" t="s">
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="5"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="4"/>
     </row>
     <row r="23" spans="1:47" ht="20" customHeight="1"/>
     <row r="24" spans="1:47" ht="20" customHeight="1"/>
@@ -2347,53 +2348,66 @@
     <row r="38" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AP18:AU18"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="AP8:AT8"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="T22:X22"/>
     <mergeCell ref="Y22:AC22"/>
     <mergeCell ref="N21:S21"/>
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="AR10:AT10"/>
     <mergeCell ref="AR11:AT11"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="AR15:AT15"/>
     <mergeCell ref="AR16:AT16"/>
     <mergeCell ref="AP13:AT13"/>
-    <mergeCell ref="AP8:AT8"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AP18:AU18"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065BCF84-F347-AC43-9F25-17D3783D1696}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>